--- a/price-changes/GridExportReport.xlsx
+++ b/price-changes/GridExportReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanpuchta/Documents/GitHub/PLL_BI_TIX/price-changes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://premierleaguelacrosse-my.sharepoint.com/personal/spuchta_premierlacrosseleague_com/Documents/Documents/GitHub/PLL_BI_TIX/price-changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9ABF27D-AB53-3D4C-85BE-D0D08103DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B9ABF27D-AB53-3D4C-85BE-D0D08103DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86282E0F-E353-4856-94F5-773A3005A36E}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="1860" windowWidth="39660" windowHeight="22840" xr2:uid="{D55B7F1C-203D-9B46-BB70-28990B9ED07C}"/>
+    <workbookView xWindow="105" yWindow="240" windowWidth="28695" windowHeight="15240" xr2:uid="{D55B7F1C-203D-9B46-BB70-28990B9ED07C}"/>
   </bookViews>
   <sheets>
     <sheet name="GridDownload" sheetId="1" r:id="rId1"/>
@@ -194,11 +194,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -256,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -279,11 +278,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -291,17 +386,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -312,11 +401,1099 @@
     <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="mmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -406,6 +1583,39 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50A491C2-5BA9-4B31-BDCD-D78FD0259FA3}" name="Table1" displayName="Table1" ref="A5:X44" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+  <autoFilter ref="A5:X44" xr:uid="{50A491C2-5BA9-4B31-BDCD-D78FD0259FA3}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{324D4744-C517-493D-BBEC-488BFCF28392}" name="EVENT DATE" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2631A616-4623-44DE-B0C3-72F49E3C7A74}" name="TIME" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{D9D744D9-1B74-4916-ACF0-4715EF3FC108}" name="DAY OF WEEK" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{ED226D1A-1352-4E81-AB3E-49B431DD1B73}" name="EVENT" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{0380F0E5-1843-40B9-8E3E-43EB761B884E}" name="EVENT CLIENT ID" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{0B424DBB-1EDA-49AB-BC2C-A2B5709C3DC3}" name="VENUE" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{1D073993-4B77-40DF-B49F-1260F40096D1}" name="STR" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C27C689E-79CF-40D7-98FB-54FAAA9439CE}" name="REVENUE OPP" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C397DD73-8E8B-4FB6-B3A5-C796F48FC417}" name="TICKET IMPACT" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{BB55BD40-F2BB-406E-ADC6-89F2B1F0CB91}" name="PL DATA" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{55E079A8-A764-46D5-A1A7-E49E2C06210F}" name="TOTAL" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{8360A41F-447F-4F43-B134-BF24F6025385}" name=" PL 1" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{F72EBC75-05F4-4067-A8D8-42E0375F87FA}" name=" PL 2" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{9D917D74-F5F0-4822-A500-406EEFDDDD19}" name=" PL 3" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{2F89C501-3CA3-4B69-B445-9AE9296E356C}" name=" PL 4" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{EBEE6BB9-C80C-4430-A4FF-2E1F13571417}" name=" PL 5" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{70E1D1E9-60A8-428A-B462-9202019C8485}" name=" PL 6" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{1E1ADB9C-5C89-4783-B85F-7E4F5E78F745}" name=" PL 7" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{9B797424-4C7B-488B-9891-EA01A06CB198}" name=" PL 8" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{56D6840C-B9E1-4CF7-91AE-FE5F9B7136C3}" name=" PL 9" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{388336B7-C7E7-44BB-8A57-A0E5B34D0157}" name=" PL 10" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{0C5B0A46-9572-4092-8791-5794FDED847A}" name=" PL 11" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{A3AEA0D9-35CA-4B7F-A0DA-7524ABA08591}" name=" PL 12" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{ED4114B2-B16F-4EDD-AA2C-2EFEC8326225}" name=" PL 13" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,116 +1941,116 @@
   <dimension ref="A5:X44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="H3" sqref="H3"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:X44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="17" width="9.6640625" customWidth="1"/>
+    <col min="15" max="17" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="22" width="11" customWidth="1"/>
-    <col min="23" max="24" width="9.6640625" customWidth="1"/>
-    <col min="25" max="256" width="8.83203125" customWidth="1"/>
+    <col min="23" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="256" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" ht="34">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:24" ht="30">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="3">
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="8">
         <v>45807</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -855,7 +2065,7 @@
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.56999999999999995</v>
       </c>
       <c r="H6" s="2">
@@ -870,51 +2080,51 @@
       <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>229</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>87</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>75</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>73</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>56</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>41</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="5">
         <v>23</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="5">
         <v>18</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="5">
         <v>173</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="5">
         <v>41</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="5">
         <v>29</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="3">
+    <row r="7" spans="1:24" ht="15">
+      <c r="A7" s="8">
         <v>45807</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -929,7 +2139,7 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.61</v>
       </c>
       <c r="H7" s="2">
@@ -944,51 +2154,51 @@
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>234</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>94</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>81</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <v>81</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>58</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <v>42</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>18</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>18</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="7">
         <v>174</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="7">
         <v>42</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="5">
         <v>29</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="3">
+    <row r="8" spans="1:24" ht="15">
+      <c r="A8" s="8">
         <v>45807</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1003,7 +2213,7 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.56999999999999995</v>
       </c>
       <c r="H8" s="2">
@@ -1018,51 +2228,51 @@
       <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>234</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>94</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>75</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>78</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>56</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>41</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <v>23</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="5">
         <v>18</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="5">
         <v>173</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="5">
         <v>41</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <v>29</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16">
-      <c r="A9" s="3">
+    <row r="9" spans="1:24" ht="15">
+      <c r="A9" s="8">
         <v>45808</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1077,7 +2287,7 @@
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.41</v>
       </c>
       <c r="H9" s="2">
@@ -1092,51 +2302,51 @@
       <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>144</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>75</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <v>65</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>48</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <v>38</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>29</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <v>18</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="5">
         <v>12</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="5">
         <v>144</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="5">
         <v>29</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="5">
         <v>29</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="3">
+    <row r="10" spans="1:24" ht="15">
+      <c r="A10" s="8">
         <v>45808</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1151,7 +2361,7 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.41</v>
       </c>
       <c r="H10" s="2">
@@ -1166,51 +2376,51 @@
       <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>144</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>80</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>58</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>48</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <v>42</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>29</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="7">
         <v>22</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>12</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>144</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="5">
         <v>29</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="5">
         <v>29</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="3">
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="8">
         <v>45808</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1225,7 +2435,7 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.41</v>
       </c>
       <c r="H11" s="2">
@@ -1240,51 +2450,51 @@
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>144</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>80</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>65</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>48</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <v>38</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>29</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <v>18</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="5">
         <v>12</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="5">
         <v>144</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="5">
         <v>29</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="5">
         <v>29</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="3">
+    <row r="12" spans="1:24" ht="15">
+      <c r="A12" s="8">
         <v>45808</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1299,7 +2509,7 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.42</v>
       </c>
       <c r="H12" s="2">
@@ -1314,51 +2524,51 @@
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>229</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <v>89</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <v>79</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="5">
         <v>63</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="5">
         <v>52</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <v>41</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <v>23</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="5">
         <v>18</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="5">
         <v>144</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="5">
         <v>35</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="5">
         <v>29</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16">
-      <c r="A13" s="3">
+    <row r="13" spans="1:24" ht="15">
+      <c r="A13" s="8">
         <v>45808</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1373,7 +2583,7 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.49</v>
       </c>
       <c r="H13" s="2">
@@ -1388,51 +2598,51 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>262</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>96</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="6">
         <v>77</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="7">
         <v>67</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="6">
         <v>46</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <v>34</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="6">
         <v>18</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="5">
         <v>18</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="7">
         <v>146</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="6">
         <v>34</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="5">
         <v>29</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="3">
+    <row r="14" spans="1:24" ht="15">
+      <c r="A14" s="8">
         <v>45808</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1447,7 +2657,7 @@
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.42</v>
       </c>
       <c r="H14" s="2">
@@ -1462,51 +2672,51 @@
       <c r="K14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>249</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <v>89</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="5">
         <v>79</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <v>63</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <v>52</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <v>41</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="5">
         <v>23</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="5">
         <v>18</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="5">
         <v>144</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="5">
         <v>35</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="5">
         <v>29</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="3">
+    <row r="15" spans="1:24" ht="15">
+      <c r="A15" s="8">
         <v>45814</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1521,7 +2731,7 @@
       <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.81</v>
       </c>
       <c r="H15" s="2">
@@ -1536,51 +2746,51 @@
       <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>229</v>
       </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>87</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <v>75</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <v>57</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="5">
         <v>41</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <v>33</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="5">
         <v>23</v>
       </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
         <v>173</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="5">
         <v>33</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16">
-      <c r="A16" s="3">
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="8">
         <v>45814</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1595,7 +2805,7 @@
       <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.87</v>
       </c>
       <c r="H16" s="2">
@@ -1610,51 +2820,51 @@
       <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <v>262</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
         <v>100</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>59</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <v>53</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>48</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="6">
         <v>31</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <v>28</v>
       </c>
-      <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
         <v>173</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="7">
         <v>35</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16">
-      <c r="A17" s="3">
+    <row r="17" spans="1:24" ht="15">
+      <c r="A17" s="8">
         <v>45814</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1669,7 +2879,7 @@
       <c r="F17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.81</v>
       </c>
       <c r="H17" s="2">
@@ -1684,51 +2894,51 @@
       <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>249</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
         <v>87</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <v>75</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <v>57</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="5">
         <v>44</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <v>33</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <v>23</v>
       </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
         <v>173</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <v>33</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16">
-      <c r="A18" s="3">
+    <row r="18" spans="1:24" ht="15">
+      <c r="A18" s="8">
         <v>45815</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1743,7 +2953,7 @@
       <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.49</v>
       </c>
       <c r="H18" s="2">
@@ -1758,51 +2968,51 @@
       <c r="K18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>144</v>
       </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
         <v>75</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <v>58</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <v>41</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <v>33</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>23</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="5">
         <v>18</v>
       </c>
-      <c r="T18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
         <v>144</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="5">
         <v>23</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16">
-      <c r="A19" s="3">
+    <row r="19" spans="1:24" ht="15">
+      <c r="A19" s="8">
         <v>45815</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1817,7 +3027,7 @@
       <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.5</v>
       </c>
       <c r="H19" s="2">
@@ -1832,51 +3042,51 @@
       <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>164</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <v>84</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>46</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <v>41</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="6">
         <v>31</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="7">
         <v>28</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
         <v>22</v>
       </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
         <v>144</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="6">
         <v>21</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="10">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16">
-      <c r="A20" s="3">
+    <row r="20" spans="1:24" ht="15">
+      <c r="A20" s="8">
         <v>45815</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1891,7 +3101,7 @@
       <c r="F20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.49</v>
       </c>
       <c r="H20" s="2">
@@ -1906,51 +3116,51 @@
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>144</v>
       </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
         <v>79</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="5">
         <v>58</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="5">
         <v>41</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="5">
         <v>33</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="5">
         <v>23</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="5">
         <v>18</v>
       </c>
-      <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
         <v>144</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="5">
         <v>23</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16">
-      <c r="A21" s="3">
+    <row r="21" spans="1:24" ht="15">
+      <c r="A21" s="8">
         <v>45815</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1965,7 +3175,7 @@
       <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.74</v>
       </c>
       <c r="H21" s="2">
@@ -1980,51 +3190,51 @@
       <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>229</v>
       </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
         <v>81</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="5">
         <v>69</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>52</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="5">
         <v>41</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <v>33</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="5">
         <v>23</v>
       </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
         <v>144</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="5">
         <v>33</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16">
-      <c r="A22" s="3">
+    <row r="22" spans="1:24" ht="15">
+      <c r="A22" s="8">
         <v>45815</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2039,7 +3249,7 @@
       <c r="F22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.86</v>
       </c>
       <c r="H22" s="2">
@@ -2054,51 +3264,51 @@
       <c r="K22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>261</v>
       </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
         <v>96</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="7">
         <v>72</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="7">
         <v>65</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="6">
         <v>32</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="6">
         <v>27</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="5">
         <v>23</v>
       </c>
-      <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
         <v>144</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="7">
         <v>34</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16">
-      <c r="A23" s="3">
+    <row r="23" spans="1:24" ht="15">
+      <c r="A23" s="8">
         <v>45815</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2113,7 +3323,7 @@
       <c r="F23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.74</v>
       </c>
       <c r="H23" s="2">
@@ -2128,51 +3338,51 @@
       <c r="K23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>229</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
         <v>81</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="5">
         <v>69</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <v>52</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="5">
         <v>41</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="5">
         <v>33</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="5">
         <v>23</v>
       </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
         <v>144</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="5">
         <v>33</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16">
-      <c r="A24" s="3">
+    <row r="24" spans="1:24" ht="15">
+      <c r="A24" s="8">
         <v>45821</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2187,7 +3397,7 @@
       <c r="F24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>0.73</v>
       </c>
       <c r="H24" s="2">
@@ -2202,31 +3412,31 @@
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>229</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>75</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="5">
         <v>58</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="5">
         <v>49</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <v>41</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="5">
         <v>29</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="5">
         <v>173</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="5">
         <v>33</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="5">
         <v>26</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -2238,15 +3448,15 @@
       <c r="W24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16">
-      <c r="A25" s="3">
+    <row r="25" spans="1:24" ht="15">
+      <c r="A25" s="8">
         <v>45821</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2261,7 +3471,7 @@
       <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.86</v>
       </c>
       <c r="H25" s="2">
@@ -2276,31 +3486,31 @@
       <c r="K25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <v>279</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>66</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="6">
         <v>44</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="6">
         <v>37</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="6">
         <v>38</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="7">
         <v>34</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="5">
         <v>173</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="5">
         <v>33</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="5">
         <v>26</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -2312,15 +3522,15 @@
       <c r="W25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16">
-      <c r="A26" s="3">
+    <row r="26" spans="1:24" ht="15">
+      <c r="A26" s="8">
         <v>45821</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2335,7 +3545,7 @@
       <c r="F26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.73</v>
       </c>
       <c r="H26" s="2">
@@ -2350,31 +3560,31 @@
       <c r="K26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>229</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <v>75</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="5">
         <v>58</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="5">
         <v>49</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <v>41</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <v>34</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <v>173</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="5">
         <v>33</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="5">
         <v>26</v>
       </c>
       <c r="U26" s="1" t="s">
@@ -2386,15 +3596,15 @@
       <c r="W26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16">
-      <c r="A27" s="3">
+    <row r="27" spans="1:24" ht="15">
+      <c r="A27" s="8">
         <v>45822</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2409,7 +3619,7 @@
       <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.6</v>
       </c>
       <c r="H27" s="2">
@@ -2424,31 +3634,31 @@
       <c r="K27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>144</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>52</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="5">
         <v>45</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="5">
         <v>41</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="5">
         <v>33</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="5">
         <v>26</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="5">
         <v>115</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="5">
         <v>26</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="5">
         <v>21</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -2460,15 +3670,15 @@
       <c r="W27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16">
-      <c r="A28" s="3">
+    <row r="28" spans="1:24" ht="15">
+      <c r="A28" s="8">
         <v>45822</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2483,7 +3693,7 @@
       <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.77</v>
       </c>
       <c r="H28" s="2">
@@ -2498,31 +3708,31 @@
       <c r="K28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <v>167</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>47</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="6">
         <v>34</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="6">
         <v>31</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="6">
         <v>25</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="6">
         <v>25</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="5">
         <v>115</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="5">
         <v>26</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="5">
         <v>21</v>
       </c>
       <c r="U28" s="1" t="s">
@@ -2534,15 +3744,15 @@
       <c r="W28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16">
-      <c r="A29" s="3">
+    <row r="29" spans="1:24" ht="15">
+      <c r="A29" s="8">
         <v>45822</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2557,7 +3767,7 @@
       <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.6</v>
       </c>
       <c r="H29" s="2">
@@ -2572,31 +3782,31 @@
       <c r="K29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>144</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <v>52</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="5">
         <v>45</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="5">
         <v>41</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="5">
         <v>33</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="5">
         <v>26</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="5">
         <v>115</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="5">
         <v>26</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="5">
         <v>21</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -2608,15 +3818,15 @@
       <c r="W29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16">
-      <c r="A30" s="3">
+    <row r="30" spans="1:24" ht="15">
+      <c r="A30" s="8">
         <v>45822</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2631,7 +3841,7 @@
       <c r="F30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>0.74</v>
       </c>
       <c r="H30" s="2">
@@ -2646,31 +3856,31 @@
       <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>173</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="5">
         <v>75</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="5">
         <v>58</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="5">
         <v>49</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="5">
         <v>41</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="5">
         <v>29</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="5">
         <v>144</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="5">
         <v>33</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="5">
         <v>26</v>
       </c>
       <c r="U30" s="1" t="s">
@@ -2682,15 +3892,15 @@
       <c r="W30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16">
-      <c r="A31" s="3">
+    <row r="31" spans="1:24" ht="15">
+      <c r="A31" s="8">
         <v>45822</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2705,7 +3915,7 @@
       <c r="F31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>0.91</v>
       </c>
       <c r="H31" s="2">
@@ -2720,31 +3930,31 @@
       <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <v>216</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>63</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="6">
         <v>47</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="6">
         <v>39</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="6">
         <v>33</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="7">
         <v>31</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="5">
         <v>144</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="5">
         <v>33</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="5">
         <v>26</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -2756,15 +3966,15 @@
       <c r="W31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16">
-      <c r="A32" s="3">
+    <row r="32" spans="1:24" ht="15">
+      <c r="A32" s="8">
         <v>45822</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2779,7 +3989,7 @@
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>0.74</v>
       </c>
       <c r="H32" s="2">
@@ -2794,31 +4004,31 @@
       <c r="K32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>173</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>75</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="5">
         <v>58</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="5">
         <v>49</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="5">
         <v>41</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="5">
         <v>29</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="5">
         <v>144</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="5">
         <v>33</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="5">
         <v>26</v>
       </c>
       <c r="U32" s="1" t="s">
@@ -2830,15 +4040,15 @@
       <c r="W32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="X32" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16">
-      <c r="A33" s="3">
+    <row r="33" spans="1:24" ht="15">
+      <c r="A33" s="8">
         <v>45829</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2853,7 +4063,7 @@
       <c r="F33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>0.45</v>
       </c>
       <c r="H33" s="2">
@@ -2868,51 +4078,51 @@
       <c r="K33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="5">
         <v>259</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="5">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="5">
         <v>75</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="5">
         <v>58</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="5">
         <v>46</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="5">
         <v>29</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="5">
         <v>23</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U33" s="7">
-        <v>0</v>
-      </c>
-      <c r="V33" s="7">
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
         <v>41</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="5">
         <v>23</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="3">
+    <row r="34" spans="1:24" ht="15">
+      <c r="A34" s="8">
         <v>45829</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2927,7 +4137,7 @@
       <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>0.5</v>
       </c>
       <c r="H34" s="2">
@@ -2942,51 +4152,51 @@
       <c r="K34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="7">
         <v>287</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="5">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="6">
         <v>60</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="6">
         <v>47</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="6">
         <v>41</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="6">
         <v>27</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="7">
         <v>27</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U34" s="7">
-        <v>0</v>
-      </c>
-      <c r="V34" s="7">
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
         <v>41</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="5">
         <v>23</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="3">
+    <row r="35" spans="1:24" ht="15">
+      <c r="A35" s="8">
         <v>45829</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3001,7 +4211,7 @@
       <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>0.45</v>
       </c>
       <c r="H35" s="2">
@@ -3016,51 +4226,51 @@
       <c r="K35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="5">
         <v>259</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="5">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="5">
         <v>75</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="5">
         <v>58</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="5">
         <v>46</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="5">
         <v>29</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="5">
         <v>23</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U35" s="7">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
         <v>41</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="5">
         <v>23</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="3">
+    <row r="36" spans="1:24" ht="15">
+      <c r="A36" s="8">
         <v>45830</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3075,7 +4285,7 @@
       <c r="F36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>0.4</v>
       </c>
       <c r="H36" s="2">
@@ -3090,51 +4300,51 @@
       <c r="K36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="5">
         <v>259</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="5">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="5">
         <v>75</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="5">
         <v>58</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="5">
         <v>46</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="5">
         <v>29</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="5">
         <v>23</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U36" s="7">
-        <v>0</v>
-      </c>
-      <c r="V36" s="7">
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
         <v>41</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="5">
         <v>23</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16">
-      <c r="A37" s="3">
+    <row r="37" spans="1:24" ht="15">
+      <c r="A37" s="8">
         <v>45830</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3149,7 +4359,7 @@
       <c r="F37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>0.47</v>
       </c>
       <c r="H37" s="2">
@@ -3164,51 +4374,51 @@
       <c r="K37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="7">
         <v>286</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="5">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="6">
         <v>58</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="6">
         <v>46</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="6">
         <v>35</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="6">
         <v>27</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="7">
         <v>27</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U37" s="7">
-        <v>0</v>
-      </c>
-      <c r="V37" s="8">
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
         <v>34</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="5">
         <v>23</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X37" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="3">
+    <row r="38" spans="1:24" ht="15">
+      <c r="A38" s="8">
         <v>45830</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3223,7 +4433,7 @@
       <c r="F38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>0.4</v>
       </c>
       <c r="H38" s="2">
@@ -3238,51 +4448,51 @@
       <c r="K38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="5">
         <v>259</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="5">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="5">
         <v>75</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="5">
         <v>58</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="5">
         <v>46</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="5">
         <v>29</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="5">
         <v>23</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U38" s="7">
-        <v>0</v>
-      </c>
-      <c r="V38" s="7">
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
         <v>41</v>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="5">
         <v>23</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="3">
+    <row r="39" spans="1:24" ht="15">
+      <c r="A39" s="8">
         <v>45835</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3297,7 +4507,7 @@
       <c r="F39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>0.92</v>
       </c>
       <c r="H39" s="2">
@@ -3312,34 +4522,34 @@
       <c r="K39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="5">
         <v>229</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="5">
         <v>75</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="5">
         <v>69</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="5">
         <v>64</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="5">
         <v>52</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="5">
         <v>46</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="5">
         <v>35</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="5">
         <v>23</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="5">
         <v>144</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="5">
         <v>29</v>
       </c>
       <c r="V39" s="1" t="s">
@@ -3348,15 +4558,15 @@
       <c r="W39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X39" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="3">
+    <row r="40" spans="1:24" ht="15">
+      <c r="A40" s="8">
         <v>45835</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3371,7 +4581,7 @@
       <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>0.96</v>
       </c>
       <c r="H40" s="2">
@@ -3386,34 +4596,34 @@
       <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="7">
         <v>265</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="7">
         <v>90</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="7">
         <v>81</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="7">
         <v>76</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="5">
         <v>52</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="5">
         <v>46</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="7">
         <v>37</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="6">
         <v>19</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="5">
         <v>144</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="5">
         <v>29</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -3422,15 +4632,15 @@
       <c r="W40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16">
-      <c r="A41" s="3">
+    <row r="41" spans="1:24" ht="15">
+      <c r="A41" s="8">
         <v>45835</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3445,7 +4655,7 @@
       <c r="F41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>0.92</v>
       </c>
       <c r="H41" s="2">
@@ -3460,34 +4670,34 @@
       <c r="K41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="5">
         <v>249</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="5">
         <v>75</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="5">
         <v>69</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="5">
         <v>64</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="5">
         <v>52</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="5">
         <v>46</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="5">
         <v>35</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="5">
         <v>23</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="5">
         <v>144</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="5">
         <v>29</v>
       </c>
       <c r="V41" s="1" t="s">
@@ -3496,15 +4706,15 @@
       <c r="W41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="3">
+    <row r="42" spans="1:24" ht="15">
+      <c r="A42" s="8">
         <v>45836</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3519,7 +4729,7 @@
       <c r="F42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>0.82</v>
       </c>
       <c r="H42" s="2">
@@ -3534,34 +4744,34 @@
       <c r="K42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="5">
         <v>229</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="5">
         <v>75</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="5">
         <v>69</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="5">
         <v>64</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="5">
         <v>52</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="5">
         <v>46</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="5">
         <v>35</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="5">
         <v>23</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="5">
         <v>144</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="5">
         <v>29</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -3570,15 +4780,15 @@
       <c r="W42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="3">
+    <row r="43" spans="1:24" ht="15">
+      <c r="A43" s="8">
         <v>45836</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3593,7 +4803,7 @@
       <c r="F43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>0.99</v>
       </c>
       <c r="H43" s="2">
@@ -3608,34 +4818,34 @@
       <c r="K43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="7">
         <v>262</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="7">
         <v>90</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="7">
         <v>81</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="7">
         <v>76</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="6">
         <v>44</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="6">
         <v>39</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="6">
         <v>27</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="6">
         <v>20</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="5">
         <v>144</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="5">
         <v>29</v>
       </c>
       <c r="V43" s="1" t="s">
@@ -3644,81 +4854,81 @@
       <c r="W43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="3">
+    <row r="44" spans="1:24" ht="15">
+      <c r="A44" s="15">
         <v>45836</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="18">
         <v>0.82</v>
       </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="K44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="20">
         <v>249</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="20">
         <v>80</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="20">
         <v>69</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="20">
         <v>64</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="20">
         <v>52</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="20">
         <v>46</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="20">
         <v>35</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="20">
         <v>23</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="20">
         <v>144</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="20">
         <v>29</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X44" s="1" t="s">
+      <c r="V44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X44" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3728,5 +4938,8 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/price-changes/GridExportReport.xlsx
+++ b/price-changes/GridExportReport.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10518"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://premierleaguelacrosse-my.sharepoint.com/personal/spuchta_premierlacrosseleague_com/Documents/Documents/GitHub/PLL_BI_TIX/price-changes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanpuchta/Documents/GitHub/PLL_BI_TIX/price-changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B9ABF27D-AB53-3D4C-85BE-D0D08103DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86282E0F-E353-4856-94F5-773A3005A36E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75664326-7AE3-9F4F-AB27-7B1E38FCE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="240" windowWidth="28695" windowHeight="15240" xr2:uid="{D55B7F1C-203D-9B46-BB70-28990B9ED07C}"/>
+    <workbookView xWindow="2880" yWindow="880" windowWidth="30240" windowHeight="17300" xr2:uid="{6AD2176D-A7F9-164C-BF06-7C1A5EFE1A77}"/>
   </bookViews>
   <sheets>
     <sheet name="GridDownload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="59">
   <si>
     <t>EVENT DATE</t>
   </si>
@@ -152,6 +163,15 @@
   </si>
   <si>
     <t>Villanova Stadium</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>ReLAX Sticks Only Showdown - Jun 14, 2025</t>
+  </si>
+  <si>
+    <t>02006243AC301D1A</t>
   </si>
   <si>
     <t>02006227B8E2178D</t>
@@ -194,10 +214,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -238,7 +259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -386,7 +407,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,7 +416,7 @@
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,25 +428,22 @@
     <xf numFmtId="8" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +466,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -518,8 +566,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -559,8 +605,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -600,8 +644,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -641,8 +683,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -682,8 +722,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -723,8 +761,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -764,8 +800,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -805,8 +839,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -846,8 +878,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -887,8 +917,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,8 +956,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -969,8 +995,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1010,8 +1034,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1051,8 +1073,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1092,8 +1112,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1133,8 +1151,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1174,8 +1190,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1215,8 +1229,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1256,8 +1268,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1297,8 +1307,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1338,8 +1346,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1379,8 +1385,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1399,7 +1403,7 @@
         <name val="Averta"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="166" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1420,8 +1424,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1450,38 +1452,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
         <right style="thin">
           <color indexed="8"/>
         </right>
@@ -1523,10 +1493,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
+        <xdr:cNvPr id="1036" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73248E6A-A991-AFEA-DCBE-2168B28DB5BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E71E03-3365-2993-62BD-6820A8A2AEA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1520,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="21856700" cy="495300"/>
+          <a:ext cx="22910800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,33 +1556,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50A491C2-5BA9-4B31-BDCD-D78FD0259FA3}" name="Table1" displayName="Table1" ref="A5:X44" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
-  <autoFilter ref="A5:X44" xr:uid="{50A491C2-5BA9-4B31-BDCD-D78FD0259FA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD171D0A-ABE7-704B-8056-394C26C6F833}" name="Table1" displayName="Table1" ref="A5:X47" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="A5:X47" xr:uid="{025D9A53-00EF-5249-9B5F-A33854527CFF}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{324D4744-C517-493D-BBEC-488BFCF28392}" name="EVENT DATE" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2631A616-4623-44DE-B0C3-72F49E3C7A74}" name="TIME" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{D9D744D9-1B74-4916-ACF0-4715EF3FC108}" name="DAY OF WEEK" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{ED226D1A-1352-4E81-AB3E-49B431DD1B73}" name="EVENT" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{0380F0E5-1843-40B9-8E3E-43EB761B884E}" name="EVENT CLIENT ID" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{0B424DBB-1EDA-49AB-BC2C-A2B5709C3DC3}" name="VENUE" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{1D073993-4B77-40DF-B49F-1260F40096D1}" name="STR" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C27C689E-79CF-40D7-98FB-54FAAA9439CE}" name="REVENUE OPP" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C397DD73-8E8B-4FB6-B3A5-C796F48FC417}" name="TICKET IMPACT" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{BB55BD40-F2BB-406E-ADC6-89F2B1F0CB91}" name="PL DATA" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{55E079A8-A764-46D5-A1A7-E49E2C06210F}" name="TOTAL" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{8360A41F-447F-4F43-B134-BF24F6025385}" name=" PL 1" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{F72EBC75-05F4-4067-A8D8-42E0375F87FA}" name=" PL 2" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{9D917D74-F5F0-4822-A500-406EEFDDDD19}" name=" PL 3" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{2F89C501-3CA3-4B69-B445-9AE9296E356C}" name=" PL 4" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{EBEE6BB9-C80C-4430-A4FF-2E1F13571417}" name=" PL 5" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{70E1D1E9-60A8-428A-B462-9202019C8485}" name=" PL 6" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{1E1ADB9C-5C89-4783-B85F-7E4F5E78F745}" name=" PL 7" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{9B797424-4C7B-488B-9891-EA01A06CB198}" name=" PL 8" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{56D6840C-B9E1-4CF7-91AE-FE5F9B7136C3}" name=" PL 9" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{388336B7-C7E7-44BB-8A57-A0E5B34D0157}" name=" PL 10" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{0C5B0A46-9572-4092-8791-5794FDED847A}" name=" PL 11" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{A3AEA0D9-35CA-4B7F-A0DA-7524ABA08591}" name=" PL 12" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{ED4114B2-B16F-4EDD-AA2C-2EFEC8326225}" name=" PL 13" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="EVENT DATE" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TIME" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DAY OF WEEK" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EVENT" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EVENT CLIENT ID" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="VENUE" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="STR" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="REVENUE OPP" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TICKET IMPACT" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="PL DATA" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="TOTAL" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name=" PL 1" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name=" PL 2" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name=" PL 3" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name=" PL 4" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name=" PL 5" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name=" PL 6" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name=" PL 7" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name=" PL 8" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name=" PL 9" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name=" PL 10" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name=" PL 11" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name=" PL 12" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name=" PL 13" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1934,119 +1904,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBF5076-E2B8-EA49-8373-C884DBA86444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1222298-EA86-B34D-8C65-AE8D37DF1D4D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:X44"/>
+  <dimension ref="A5:X47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:X44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="17" width="9.7109375" customWidth="1"/>
+    <col min="15" max="17" width="9.6640625" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
     <col min="20" max="22" width="11" customWidth="1"/>
-    <col min="23" max="24" width="9.85546875" customWidth="1"/>
-    <col min="25" max="256" width="8.85546875" customWidth="1"/>
+    <col min="23" max="24" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" ht="30">
-      <c r="A5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:24" ht="17">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:24" ht="16">
       <c r="A6" s="8">
         <v>45807</v>
       </c>
@@ -2066,7 +2031,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2120,7 +2085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:24" ht="16">
       <c r="A7" s="8">
         <v>45807</v>
       </c>
@@ -2140,13 +2105,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="4">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="2">
-        <v>1370</v>
+        <v>1568</v>
       </c>
       <c r="I7" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
@@ -2155,25 +2120,25 @@
         <v>30</v>
       </c>
       <c r="L7" s="7">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O7" s="7">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7">
-        <v>58</v>
-      </c>
-      <c r="R7" s="7">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="R7" s="6">
+        <v>40</v>
       </c>
       <c r="S7" s="6">
         <v>18</v>
@@ -2182,10 +2147,10 @@
         <v>18</v>
       </c>
       <c r="U7" s="7">
-        <v>174</v>
-      </c>
-      <c r="V7" s="7">
-        <v>42</v>
+        <v>176</v>
+      </c>
+      <c r="V7" s="6">
+        <v>40</v>
       </c>
       <c r="W7" s="5">
         <v>29</v>
@@ -2194,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15">
+    <row r="8" spans="1:24" ht="16">
       <c r="A8" s="8">
         <v>45807</v>
       </c>
@@ -2214,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2229,19 +2194,19 @@
         <v>30</v>
       </c>
       <c r="L8" s="5">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" s="5">
         <v>75</v>
       </c>
       <c r="P8" s="5">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="5">
         <v>56</v>
@@ -2268,7 +2233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:24" ht="16">
       <c r="A9" s="8">
         <v>45808</v>
       </c>
@@ -2288,7 +2253,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="4">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2342,7 +2307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:24" ht="16">
       <c r="A10" s="8">
         <v>45808</v>
       </c>
@@ -2362,13 +2327,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="4">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="H10" s="2">
-        <v>1168</v>
+        <v>2141</v>
       </c>
       <c r="I10" s="2">
-        <v>-25</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -2383,16 +2348,16 @@
         <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O10" s="6">
-        <v>58</v>
-      </c>
-      <c r="P10" s="5">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="P10" s="7">
+        <v>53</v>
       </c>
       <c r="Q10" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R10" s="5">
         <v>29</v>
@@ -2416,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15">
+    <row r="11" spans="1:24" ht="16">
       <c r="A11" s="8">
         <v>45808</v>
       </c>
@@ -2436,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="4">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2457,13 +2422,13 @@
         <v>30</v>
       </c>
       <c r="N11" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11" s="5">
         <v>65</v>
       </c>
       <c r="P11" s="5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="5">
         <v>38</v>
@@ -2472,7 +2437,7 @@
         <v>29</v>
       </c>
       <c r="S11" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T11" s="5">
         <v>12</v>
@@ -2490,7 +2455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15">
+    <row r="12" spans="1:24" ht="16">
       <c r="A12" s="8">
         <v>45808</v>
       </c>
@@ -2510,7 +2475,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="4">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2564,7 +2529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15">
+    <row r="13" spans="1:24" ht="16">
       <c r="A13" s="8">
         <v>45808</v>
       </c>
@@ -2584,13 +2549,13 @@
         <v>28</v>
       </c>
       <c r="G13" s="4">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="H13" s="2">
-        <v>2595</v>
+        <v>1313</v>
       </c>
       <c r="I13" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
@@ -2598,26 +2563,26 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="7">
-        <v>262</v>
+      <c r="L13" s="6">
+        <v>227</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="7">
-        <v>96</v>
+      <c r="N13" s="5">
+        <v>89</v>
       </c>
       <c r="O13" s="6">
-        <v>77</v>
-      </c>
-      <c r="P13" s="7">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="P13" s="6">
+        <v>59</v>
       </c>
       <c r="Q13" s="6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R13" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S13" s="6">
         <v>18</v>
@@ -2626,10 +2591,10 @@
         <v>18</v>
       </c>
       <c r="U13" s="7">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="V13" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W13" s="5">
         <v>29</v>
@@ -2638,7 +2603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15">
+    <row r="14" spans="1:24" ht="16">
       <c r="A14" s="8">
         <v>45808</v>
       </c>
@@ -2658,7 +2623,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="4">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2673,7 +2638,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="5">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>30</v>
@@ -2700,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="U14" s="5">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="V14" s="5">
         <v>35</v>
@@ -2712,7 +2677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15">
+    <row r="15" spans="1:24" ht="16">
       <c r="A15" s="8">
         <v>45814</v>
       </c>
@@ -2732,7 +2697,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="4">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2786,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15">
+    <row r="16" spans="1:24" ht="16">
       <c r="A16" s="8">
         <v>45814</v>
       </c>
@@ -2806,13 +2771,13 @@
         <v>39</v>
       </c>
       <c r="G16" s="4">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="H16" s="2">
-        <v>5110</v>
+        <v>4401</v>
       </c>
       <c r="I16" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>31</v>
@@ -2821,25 +2786,25 @@
         <v>30</v>
       </c>
       <c r="L16" s="7">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M16" s="5">
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P16" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R16" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S16" s="7">
         <v>28</v>
@@ -2853,14 +2818,14 @@
       <c r="V16" s="5">
         <v>173</v>
       </c>
-      <c r="W16" s="7">
-        <v>35</v>
+      <c r="W16" s="5">
+        <v>33</v>
       </c>
       <c r="X16" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15">
+    <row r="17" spans="1:24" ht="16">
       <c r="A17" s="8">
         <v>45814</v>
       </c>
@@ -2880,7 +2845,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="4">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2895,7 +2860,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="5">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2910,7 +2875,7 @@
         <v>57</v>
       </c>
       <c r="Q17" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17" s="5">
         <v>33</v>
@@ -2934,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15">
+    <row r="18" spans="1:24" ht="16">
       <c r="A18" s="8">
         <v>45815</v>
       </c>
@@ -2954,7 +2919,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="4">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -3008,7 +2973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15">
+    <row r="19" spans="1:24" ht="16">
       <c r="A19" s="8">
         <v>45815</v>
       </c>
@@ -3028,13 +2993,13 @@
         <v>39</v>
       </c>
       <c r="G19" s="4">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H19" s="2">
-        <v>2256</v>
+        <v>1988</v>
       </c>
       <c r="I19" s="2">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>31</v>
@@ -3049,22 +3014,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" s="6">
-        <v>46</v>
-      </c>
-      <c r="P19" s="5">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="P19" s="6">
+        <v>39</v>
       </c>
       <c r="Q19" s="6">
-        <v>31</v>
-      </c>
-      <c r="R19" s="7">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="R19" s="6">
+        <v>18</v>
       </c>
       <c r="S19" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
@@ -3075,14 +3040,14 @@
       <c r="V19" s="5">
         <v>144</v>
       </c>
-      <c r="W19" s="6">
-        <v>21</v>
-      </c>
-      <c r="X19" s="10">
-        <v>22</v>
+      <c r="W19" s="5">
+        <v>23</v>
+      </c>
+      <c r="X19" s="9">
+        <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15">
+    <row r="20" spans="1:24" ht="16">
       <c r="A20" s="8">
         <v>45815</v>
       </c>
@@ -3102,7 +3067,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="4">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -3117,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="5">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -3156,7 +3121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15">
+    <row r="21" spans="1:24" ht="16">
       <c r="A21" s="8">
         <v>45815</v>
       </c>
@@ -3230,7 +3195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15">
+    <row r="22" spans="1:24" ht="16">
       <c r="A22" s="8">
         <v>45815</v>
       </c>
@@ -3250,13 +3215,13 @@
         <v>39</v>
       </c>
       <c r="G22" s="4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="H22" s="2">
-        <v>5901</v>
+        <v>4733</v>
       </c>
       <c r="I22" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>31</v>
@@ -3265,19 +3230,19 @@
         <v>30</v>
       </c>
       <c r="L22" s="7">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>96</v>
-      </c>
-      <c r="O22" s="7">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="O22" s="6">
+        <v>67</v>
       </c>
       <c r="P22" s="7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="6">
         <v>32</v>
@@ -3297,14 +3262,14 @@
       <c r="V22" s="5">
         <v>144</v>
       </c>
-      <c r="W22" s="7">
-        <v>34</v>
-      </c>
-      <c r="X22" s="10">
-        <v>28</v>
+      <c r="W22" s="5">
+        <v>33</v>
+      </c>
+      <c r="X22" s="9">
+        <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15">
+    <row r="23" spans="1:24" ht="16">
       <c r="A23" s="8">
         <v>45815</v>
       </c>
@@ -3378,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15">
+    <row r="24" spans="1:24" ht="16">
       <c r="A24" s="8">
         <v>45821</v>
       </c>
@@ -3398,7 +3363,7 @@
         <v>43</v>
       </c>
       <c r="G24" s="4">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -3448,11 +3413,11 @@
       <c r="W24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="X24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15">
+    <row r="25" spans="1:24" ht="16">
       <c r="A25" s="8">
         <v>45821</v>
       </c>
@@ -3475,10 +3440,10 @@
         <v>0.86</v>
       </c>
       <c r="H25" s="2">
-        <v>3315</v>
+        <v>3622</v>
       </c>
       <c r="I25" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>31</v>
@@ -3487,10 +3452,10 @@
         <v>30</v>
       </c>
       <c r="L25" s="7">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M25" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N25" s="6">
         <v>44</v>
@@ -3499,10 +3464,10 @@
         <v>37</v>
       </c>
       <c r="P25" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R25" s="5">
         <v>173</v>
@@ -3522,11 +3487,11 @@
       <c r="W25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="11" t="s">
+      <c r="X25" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15">
+    <row r="26" spans="1:24" ht="16">
       <c r="A26" s="8">
         <v>45821</v>
       </c>
@@ -3546,7 +3511,7 @@
         <v>43</v>
       </c>
       <c r="G26" s="4">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -3576,7 +3541,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R26" s="5">
         <v>173</v>
@@ -3596,31 +3561,31 @@
       <c r="W26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="X26" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15">
+    <row r="27" spans="1:24" ht="16">
       <c r="A27" s="8">
         <v>45822</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -3635,31 +3600,31 @@
         <v>30</v>
       </c>
       <c r="L27" s="5">
-        <v>144</v>
-      </c>
-      <c r="M27" s="5">
-        <v>52</v>
-      </c>
-      <c r="N27" s="5">
-        <v>45</v>
-      </c>
-      <c r="O27" s="5">
-        <v>41</v>
-      </c>
-      <c r="P27" s="5">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>26</v>
-      </c>
-      <c r="R27" s="5">
-        <v>115</v>
-      </c>
-      <c r="S27" s="5">
-        <v>26</v>
-      </c>
-      <c r="T27" s="5">
-        <v>21</v>
+        <v>129.99000549316406</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>30</v>
@@ -3670,37 +3635,37 @@
       <c r="W27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="X27" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15">
+    <row r="28" spans="1:24" ht="16">
       <c r="A28" s="8">
         <v>45822</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="4">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>3757</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>31</v>
@@ -3708,32 +3673,32 @@
       <c r="K28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="7">
-        <v>167</v>
-      </c>
-      <c r="M28" s="6">
-        <v>47</v>
-      </c>
-      <c r="N28" s="6">
-        <v>34</v>
-      </c>
-      <c r="O28" s="6">
-        <v>31</v>
-      </c>
-      <c r="P28" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>25</v>
-      </c>
-      <c r="R28" s="5">
-        <v>115</v>
-      </c>
-      <c r="S28" s="5">
-        <v>26</v>
-      </c>
-      <c r="T28" s="5">
-        <v>21</v>
+      <c r="L28" s="6">
+        <v>129.99</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>30</v>
@@ -3744,31 +3709,31 @@
       <c r="W28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="X28" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15">
+    <row r="29" spans="1:24" ht="16">
       <c r="A29" s="8">
         <v>45822</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -3783,31 +3748,31 @@
         <v>30</v>
       </c>
       <c r="L29" s="5">
-        <v>144</v>
-      </c>
-      <c r="M29" s="5">
-        <v>52</v>
-      </c>
-      <c r="N29" s="5">
-        <v>45</v>
-      </c>
-      <c r="O29" s="5">
-        <v>41</v>
-      </c>
-      <c r="P29" s="5">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>26</v>
-      </c>
-      <c r="R29" s="5">
-        <v>115</v>
-      </c>
-      <c r="S29" s="5">
-        <v>26</v>
-      </c>
-      <c r="T29" s="5">
-        <v>21</v>
+        <v>129.99000549316406</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>30</v>
@@ -3818,16 +3783,16 @@
       <c r="W29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15">
+    <row r="30" spans="1:24" ht="16">
       <c r="A30" s="8">
         <v>45822</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
@@ -3836,13 +3801,13 @@
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="4">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -3857,31 +3822,31 @@
         <v>30</v>
       </c>
       <c r="L30" s="5">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M30" s="5">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N30" s="5">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="O30" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P30" s="5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R30" s="5">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="S30" s="5">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T30" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>30</v>
@@ -3892,16 +3857,16 @@
       <c r="W30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="11" t="s">
+      <c r="X30" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15">
+    <row r="31" spans="1:24" ht="16">
       <c r="A31" s="8">
         <v>45822</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
@@ -3910,19 +3875,19 @@
         <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="4">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="H31" s="2">
-        <v>4521</v>
+        <v>3809</v>
       </c>
       <c r="I31" s="2">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>
@@ -3931,31 +3896,31 @@
         <v>30</v>
       </c>
       <c r="L31" s="7">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="M31" s="6">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N31" s="6">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O31" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P31" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R31" s="5">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="S31" s="5">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T31" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>30</v>
@@ -3966,16 +3931,16 @@
       <c r="W31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="X31" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15">
+    <row r="32" spans="1:24" ht="16">
       <c r="A32" s="8">
         <v>45822</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
@@ -3984,13 +3949,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="4">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -4005,31 +3970,31 @@
         <v>30</v>
       </c>
       <c r="L32" s="5">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M32" s="5">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N32" s="5">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="O32" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P32" s="5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R32" s="5">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="S32" s="5">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T32" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>30</v>
@@ -4040,16 +4005,16 @@
       <c r="W32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="X32" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15">
+    <row r="33" spans="1:24" ht="16">
       <c r="A33" s="8">
-        <v>45829</v>
+        <v>45822</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
@@ -4058,13 +4023,13 @@
         <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G33" s="4">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -4079,51 +4044,51 @@
         <v>30</v>
       </c>
       <c r="L33" s="5">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="N33" s="5">
+        <v>58</v>
       </c>
       <c r="O33" s="5">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="P33" s="5">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="5">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="R33" s="5">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="S33" s="5">
-        <v>23</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>41</v>
-      </c>
-      <c r="W33" s="5">
-        <v>23</v>
-      </c>
-      <c r="X33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="5">
+        <v>26</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15">
+    <row r="34" spans="1:24" ht="16">
       <c r="A34" s="8">
-        <v>45829</v>
+        <v>45822</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>34</v>
@@ -4132,19 +4097,19 @@
         <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="H34" s="2">
-        <v>3301</v>
+        <v>3634</v>
       </c>
       <c r="I34" s="2">
-        <v>192</v>
+        <v>461</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>31</v>
@@ -4153,51 +4118,51 @@
         <v>30</v>
       </c>
       <c r="L34" s="7">
-        <v>287</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>30</v>
+        <v>216</v>
+      </c>
+      <c r="M34" s="6">
+        <v>61</v>
+      </c>
+      <c r="N34" s="6">
+        <v>44</v>
       </c>
       <c r="O34" s="6">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P34" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>41</v>
-      </c>
-      <c r="R34" s="6">
-        <v>27</v>
-      </c>
-      <c r="S34" s="7">
-        <v>27</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U34" s="5">
-        <v>0</v>
-      </c>
-      <c r="V34" s="5">
-        <v>41</v>
-      </c>
-      <c r="W34" s="5">
-        <v>23</v>
-      </c>
-      <c r="X34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>31</v>
+      </c>
+      <c r="R34" s="5">
+        <v>144</v>
+      </c>
+      <c r="S34" s="5">
+        <v>33</v>
+      </c>
+      <c r="T34" s="5">
+        <v>26</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X34" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15">
+    <row r="35" spans="1:24" ht="16">
       <c r="A35" s="8">
-        <v>45829</v>
+        <v>45822</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>34</v>
@@ -4206,13 +4171,13 @@
         <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G35" s="4">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -4227,66 +4192,66 @@
         <v>30</v>
       </c>
       <c r="L35" s="5">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="N35" s="5">
+        <v>58</v>
       </c>
       <c r="O35" s="5">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="P35" s="5">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="5">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="R35" s="5">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="S35" s="5">
-        <v>23</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
-        <v>41</v>
-      </c>
-      <c r="W35" s="5">
-        <v>23</v>
-      </c>
-      <c r="X35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="5">
+        <v>26</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15">
+    <row r="36" spans="1:24" ht="16">
       <c r="A36" s="8">
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G36" s="4">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -4336,37 +4301,37 @@
       <c r="W36" s="5">
         <v>23</v>
       </c>
-      <c r="X36" s="11" t="s">
+      <c r="X36" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15">
+    <row r="37" spans="1:24" ht="16">
       <c r="A37" s="8">
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G37" s="4">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="2">
-        <v>3207</v>
+        <v>3100</v>
       </c>
       <c r="I37" s="2">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>31</v>
@@ -4375,7 +4340,7 @@
         <v>30</v>
       </c>
       <c r="L37" s="7">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M37" s="5">
         <v>0</v>
@@ -4384,13 +4349,13 @@
         <v>30</v>
       </c>
       <c r="O37" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P37" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R37" s="6">
         <v>27</v>
@@ -4404,37 +4369,37 @@
       <c r="U37" s="5">
         <v>0</v>
       </c>
-      <c r="V37" s="6">
-        <v>34</v>
+      <c r="V37" s="5">
+        <v>41</v>
       </c>
       <c r="W37" s="5">
         <v>23</v>
       </c>
-      <c r="X37" s="11" t="s">
+      <c r="X37" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15">
+    <row r="38" spans="1:24" ht="16">
       <c r="A38" s="8">
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G38" s="4">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -4484,31 +4449,31 @@
       <c r="W38" s="5">
         <v>23</v>
       </c>
-      <c r="X38" s="11" t="s">
+      <c r="X38" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15">
+    <row r="39" spans="1:24" ht="16">
       <c r="A39" s="8">
-        <v>45835</v>
+        <v>45830</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" s="4">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -4523,72 +4488,72 @@
         <v>30</v>
       </c>
       <c r="L39" s="5">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="5">
         <v>75</v>
       </c>
-      <c r="N39" s="5">
-        <v>69</v>
-      </c>
-      <c r="O39" s="5">
-        <v>64</v>
-      </c>
       <c r="P39" s="5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="5">
         <v>46</v>
       </c>
       <c r="R39" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S39" s="5">
         <v>23</v>
       </c>
-      <c r="T39" s="5">
-        <v>144</v>
+      <c r="T39" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U39" s="5">
-        <v>29</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>41</v>
+      </c>
+      <c r="W39" s="5">
+        <v>23</v>
+      </c>
+      <c r="X39" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15">
+    <row r="40" spans="1:24" ht="16">
       <c r="A40" s="8">
-        <v>45835</v>
+        <v>45830</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G40" s="4">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="2">
-        <v>3265</v>
+        <v>2996</v>
       </c>
       <c r="I40" s="2">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>31</v>
@@ -4597,66 +4562,66 @@
         <v>30</v>
       </c>
       <c r="L40" s="7">
-        <v>265</v>
-      </c>
-      <c r="M40" s="7">
-        <v>90</v>
-      </c>
-      <c r="N40" s="7">
-        <v>81</v>
-      </c>
-      <c r="O40" s="7">
-        <v>76</v>
-      </c>
-      <c r="P40" s="5">
+        <v>293</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="6">
+        <v>57</v>
+      </c>
+      <c r="P40" s="6">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>35</v>
+      </c>
+      <c r="R40" s="6">
+        <v>23</v>
+      </c>
+      <c r="S40" s="5">
+        <v>23</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <v>35</v>
+      </c>
+      <c r="W40" s="5">
+        <v>23</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16">
+      <c r="A41" s="8">
+        <v>45830</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q40" s="5">
-        <v>46</v>
-      </c>
-      <c r="R40" s="7">
-        <v>37</v>
-      </c>
-      <c r="S40" s="6">
-        <v>19</v>
-      </c>
-      <c r="T40" s="5">
-        <v>144</v>
-      </c>
-      <c r="U40" s="5">
-        <v>29</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15">
-      <c r="A41" s="8">
-        <v>45835</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G41" s="4">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -4671,54 +4636,54 @@
         <v>30</v>
       </c>
       <c r="L41" s="5">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="5">
         <v>75</v>
       </c>
-      <c r="N41" s="5">
-        <v>69</v>
-      </c>
-      <c r="O41" s="5">
-        <v>64</v>
-      </c>
       <c r="P41" s="5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="5">
         <v>46</v>
       </c>
       <c r="R41" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S41" s="5">
         <v>23</v>
       </c>
-      <c r="T41" s="5">
-        <v>144</v>
+      <c r="T41" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U41" s="5">
-        <v>29</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>41</v>
+      </c>
+      <c r="W41" s="5">
+        <v>23</v>
+      </c>
+      <c r="X41" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15">
+    <row r="42" spans="1:24" ht="16">
       <c r="A42" s="8">
-        <v>45836</v>
+        <v>45835</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
@@ -4727,10 +4692,10 @@
         <v>55</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G42" s="4">
-        <v>0.82</v>
+        <v>0.94</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -4780,19 +4745,19 @@
       <c r="W42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X42" s="11" t="s">
+      <c r="X42" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15">
+    <row r="43" spans="1:24" ht="16">
       <c r="A43" s="8">
-        <v>45836</v>
+        <v>45835</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
@@ -4801,16 +4766,16 @@
         <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G43" s="4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>5062</v>
+        <v>3241</v>
       </c>
       <c r="I43" s="2">
-        <v>348</v>
+        <v>121</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>31</v>
@@ -4819,7 +4784,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="7">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M43" s="7">
         <v>90</v>
@@ -4831,16 +4796,16 @@
         <v>76</v>
       </c>
       <c r="P43" s="6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q43" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R43" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S43" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T43" s="5">
         <v>144</v>
@@ -4854,81 +4819,303 @@
       <c r="W43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X43" s="11" t="s">
+      <c r="X43" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15">
-      <c r="A44" s="15">
+    <row r="44" spans="1:24" ht="16">
+      <c r="A44" s="8">
+        <v>45835</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="5">
+        <v>229</v>
+      </c>
+      <c r="M44" s="5">
+        <v>75</v>
+      </c>
+      <c r="N44" s="5">
+        <v>69</v>
+      </c>
+      <c r="O44" s="5">
+        <v>64</v>
+      </c>
+      <c r="P44" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>46</v>
+      </c>
+      <c r="R44" s="5">
+        <v>35</v>
+      </c>
+      <c r="S44" s="5">
+        <v>23</v>
+      </c>
+      <c r="T44" s="5">
+        <v>144</v>
+      </c>
+      <c r="U44" s="5">
+        <v>29</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="16">
+      <c r="A45" s="8">
         <v>45836</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="17" t="s">
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0.82</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17" t="s">
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="5">
+        <v>229</v>
+      </c>
+      <c r="M45" s="5">
+        <v>75</v>
+      </c>
+      <c r="N45" s="5">
+        <v>69</v>
+      </c>
+      <c r="O45" s="5">
+        <v>64</v>
+      </c>
+      <c r="P45" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>46</v>
+      </c>
+      <c r="R45" s="5">
+        <v>35</v>
+      </c>
+      <c r="S45" s="5">
+        <v>23</v>
+      </c>
+      <c r="T45" s="5">
+        <v>144</v>
+      </c>
+      <c r="U45" s="5">
+        <v>29</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="16">
+      <c r="A46" s="8">
+        <v>45836</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H46" s="2">
+        <v>5088</v>
+      </c>
+      <c r="I46" s="2">
+        <v>222</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="7">
+        <v>263</v>
+      </c>
+      <c r="M46" s="7">
+        <v>91</v>
+      </c>
+      <c r="N46" s="7">
+        <v>82</v>
+      </c>
+      <c r="O46" s="7">
+        <v>78</v>
+      </c>
+      <c r="P46" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>40</v>
+      </c>
+      <c r="R46" s="6">
+        <v>28</v>
+      </c>
+      <c r="S46" s="7">
+        <v>26</v>
+      </c>
+      <c r="T46" s="5">
+        <v>144</v>
+      </c>
+      <c r="U46" s="5">
+        <v>29</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16">
+      <c r="A47" s="14">
+        <v>45836</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="20">
-        <v>249</v>
-      </c>
-      <c r="M44" s="20">
-        <v>80</v>
-      </c>
-      <c r="N44" s="20">
+      <c r="K47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="19">
+        <v>229</v>
+      </c>
+      <c r="M47" s="19">
+        <v>75</v>
+      </c>
+      <c r="N47" s="19">
         <v>69</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O47" s="19">
         <v>64</v>
       </c>
-      <c r="P44" s="20">
+      <c r="P47" s="19">
         <v>52</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="Q47" s="19">
         <v>46</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R47" s="19">
         <v>35</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S47" s="19">
         <v>23</v>
       </c>
-      <c r="T44" s="20">
+      <c r="T47" s="19">
         <v>144</v>
       </c>
-      <c r="U44" s="20">
-        <v>29</v>
-      </c>
-      <c r="V44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="W44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X44" s="21" t="s">
+      <c r="U47" s="19">
+        <v>29</v>
+      </c>
+      <c r="V47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X47" s="20" t="s">
         <v>30</v>
       </c>
     </row>

--- a/price-changes/GridExportReport.xlsx
+++ b/price-changes/GridExportReport.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanpuchta/Documents/GitHub/PLL_BI_TIX/price-changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75664326-7AE3-9F4F-AB27-7B1E38FCE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC03ADB-C616-6445-AE02-FA202C7EEC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="880" windowWidth="30240" windowHeight="17300" xr2:uid="{6AD2176D-A7F9-164C-BF06-7C1A5EFE1A77}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="30220" windowHeight="15580" xr2:uid="{D923F7BA-F3C6-234D-A207-DFB0546E3056}"/>
   </bookViews>
   <sheets>
     <sheet name="GridDownload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
   <si>
     <t>EVENT DATE</t>
   </si>
@@ -178,36 +167,6 @@
   </si>
   <si>
     <t>02006227B8E0178A</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>1500622FA35718BC</t>
-  </si>
-  <si>
-    <t>Homewood Field</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>1500622FA35918CB</t>
-  </si>
-  <si>
-    <t>0A006227ACB715EF</t>
-  </si>
-  <si>
-    <t>USD TORERO STADIUM</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>0A006227ACBA15F4</t>
   </si>
 </sst>
 </file>
@@ -259,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,7 +375,7 @@
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,16 +387,22 @@
     <xf numFmtId="8" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,37 +430,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -529,6 +464,69 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Averta"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -559,13 +557,17 @@
         <left style="thin">
           <color indexed="8"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
         <top style="thin">
           <color indexed="8"/>
         </top>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -605,6 +607,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -644,6 +648,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -683,6 +689,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -722,6 +730,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -761,6 +771,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -800,6 +812,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -839,6 +853,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -878,6 +894,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -917,6 +935,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -956,6 +976,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -995,45 +1017,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Averta"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1073,6 +1058,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1112,6 +1099,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1151,6 +1140,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1190,6 +1181,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1229,6 +1222,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1268,6 +1263,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1307,6 +1304,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1346,6 +1345,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1385,6 +1386,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1424,6 +1427,8 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1452,6 +1457,38 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
         <right style="thin">
           <color indexed="8"/>
         </right>
@@ -1493,10 +1530,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 1">
+        <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E71E03-3365-2993-62BD-6820A8A2AEA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB68B50-DAF1-C5C7-A93B-5D2D174AC939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1557,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="22910800" cy="495300"/>
+          <a:ext cx="21755100" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,33 +1593,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD171D0A-ABE7-704B-8056-394C26C6F833}" name="Table1" displayName="Table1" ref="A5:X47" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
-  <autoFilter ref="A5:X47" xr:uid="{025D9A53-00EF-5249-9B5F-A33854527CFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D19FD14A-C43E-4441-A24A-F6BD6F6C6196}" name="Table1" displayName="Table1" ref="A5:X35" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <autoFilter ref="A5:X35" xr:uid="{D19FD14A-C43E-4441-A24A-F6BD6F6C6196}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="EVENT DATE" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TIME" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DAY OF WEEK" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EVENT" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EVENT CLIENT ID" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="VENUE" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="STR" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="REVENUE OPP" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TICKET IMPACT" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="PL DATA" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="TOTAL" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name=" PL 1" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name=" PL 2" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name=" PL 3" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name=" PL 4" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name=" PL 5" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name=" PL 6" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name=" PL 7" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name=" PL 8" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name=" PL 9" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name=" PL 10" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name=" PL 11" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name=" PL 12" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name=" PL 13" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{697A72C5-9A3B-6046-A052-07224280C836}" name="EVENT DATE" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{74A253AA-46BD-9E4B-803D-758EF84A0D77}" name="TIME" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3836C569-667B-EA46-A717-B8661BC8447A}" name="DAY OF WEEK" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7939ED7B-612D-3044-937E-459263C848ED}" name="EVENT" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{3BB72D03-30A0-3D44-83B1-0C0D1A8AB16D}" name="EVENT CLIENT ID" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{8410A6AD-1979-5E4F-86ED-A4080AC3BE24}" name="VENUE" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{35C6714F-D448-0A4E-83E1-71F0C3EA912E}" name="STR" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{9BAB26A3-DCA2-864B-B28D-C140214AA83E}" name="REVENUE OPP" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{ADED5AE0-124E-E84E-AB01-F4FF640ABFD4}" name="TICKET IMPACT" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{6884614B-2D85-9646-BCA1-DE51D00D1A7E}" name="PL DATA" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{CD2BF8B7-F1F1-2140-A8EB-DB5CFA3558D9}" name="TOTAL" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{2D0641A4-B377-9445-9458-8E96EECC3809}" name=" PL 1" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{AA215C8D-B009-7049-97DB-E1AF19D1EF40}" name=" PL 2" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{C4B3C1BE-6B7B-8D43-9767-FEF7BEFCD097}" name=" PL 3" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{5009F2F7-7C44-574F-876B-CAFFE1B65981}" name=" PL 4" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{C4288B67-81BE-3F4C-8082-4486FDE84C83}" name=" PL 5" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{599B21FC-DC52-1B4F-8F78-C9B72D319CF4}" name=" PL 6" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{D15E36FC-BEB7-6343-B4A0-651B8B656265}" name=" PL 7" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{CC73DB5E-78B3-994E-ACDB-371CB4FA9E63}" name=" PL 8" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{A810EE21-FF33-8148-9780-188A47472264}" name=" PL 9" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{75C14C23-1DA3-084D-AC05-902C50D1AB65}" name=" PL 10" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{36F49096-B312-E747-A07A-EF21B16CD088}" name=" PL 11" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{1699791E-6D0F-764E-94CF-4430F60DD01B}" name=" PL 12" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{0E1029B7-E231-F64C-A47E-9FFC7EF80837}" name=" PL 13" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1904,17 +1941,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1222298-EA86-B34D-8C65-AE8D37DF1D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC1768-27CA-3A42-8145-6B036400AB4F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:X47"/>
+  <dimension ref="A5:X35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1928,86 +1965,85 @@
     <col min="10" max="10" width="19.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="17" width="9.6640625" customWidth="1"/>
+    <col min="13" max="17" width="9.6640625" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="22" width="11" customWidth="1"/>
+    <col min="19" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="22" width="11" customWidth="1"/>
     <col min="23" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" ht="17">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:24" ht="34">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2031,7 +2067,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2064,7 +2100,7 @@
         <v>56</v>
       </c>
       <c r="R6" s="5">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S6" s="5">
         <v>23</v>
@@ -2105,13 +2141,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="4">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="H7" s="2">
-        <v>1568</v>
+        <v>2488</v>
       </c>
       <c r="I7" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
@@ -2119,26 +2155,26 @@
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7">
-        <v>248</v>
+      <c r="L7" s="5">
+        <v>229</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="7">
-        <v>105</v>
-      </c>
-      <c r="O7" s="7">
-        <v>77</v>
-      </c>
-      <c r="P7" s="7">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>63</v>
+      <c r="N7" s="6">
+        <v>85</v>
+      </c>
+      <c r="O7" s="6">
+        <v>59</v>
+      </c>
+      <c r="P7" s="6">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>42</v>
       </c>
       <c r="R7" s="6">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="S7" s="6">
         <v>18</v>
@@ -2147,16 +2183,16 @@
         <v>18</v>
       </c>
       <c r="U7" s="7">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="V7" s="6">
-        <v>40</v>
-      </c>
-      <c r="W7" s="5">
-        <v>29</v>
-      </c>
-      <c r="X7" s="9">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="W7" s="7">
+        <v>36</v>
+      </c>
+      <c r="X7" s="10">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
@@ -2179,7 +2215,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2194,25 +2230,25 @@
         <v>30</v>
       </c>
       <c r="L8" s="5">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="5">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O8" s="5">
         <v>75</v>
       </c>
       <c r="P8" s="5">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="5">
         <v>56</v>
       </c>
       <c r="R8" s="5">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S8" s="5">
         <v>23</v>
@@ -2253,7 +2289,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="4">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2274,7 +2310,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O9" s="5">
         <v>65</v>
@@ -2327,13 +2363,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="4">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="H10" s="2">
-        <v>2141</v>
+        <v>589</v>
       </c>
       <c r="I10" s="2">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -2341,26 +2377,26 @@
       <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="5">
-        <v>144</v>
+      <c r="L10" s="7">
+        <v>154</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="7">
-        <v>81</v>
+      <c r="N10" s="6">
+        <v>61</v>
       </c>
       <c r="O10" s="6">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>44</v>
-      </c>
-      <c r="R10" s="5">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="6">
         <v>29</v>
+      </c>
+      <c r="R10" s="6">
+        <v>22</v>
       </c>
       <c r="S10" s="7">
         <v>22</v>
@@ -2368,17 +2404,17 @@
       <c r="T10" s="5">
         <v>12</v>
       </c>
-      <c r="U10" s="5">
-        <v>144</v>
-      </c>
-      <c r="V10" s="5">
-        <v>29</v>
-      </c>
-      <c r="W10" s="5">
-        <v>29</v>
-      </c>
-      <c r="X10" s="9">
-        <v>29</v>
+      <c r="U10" s="7">
+        <v>154</v>
+      </c>
+      <c r="V10" s="6">
+        <v>22</v>
+      </c>
+      <c r="W10" s="6">
+        <v>22</v>
+      </c>
+      <c r="X10" s="11">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
@@ -2401,7 +2437,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="4">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2428,7 +2464,7 @@
         <v>65</v>
       </c>
       <c r="P11" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="5">
         <v>38</v>
@@ -2437,7 +2473,7 @@
         <v>29</v>
       </c>
       <c r="S11" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T11" s="5">
         <v>12</v>
@@ -2475,7 +2511,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="4">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2508,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="R12" s="5">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S12" s="5">
         <v>23</v>
@@ -2549,13 +2585,13 @@
         <v>28</v>
       </c>
       <c r="G13" s="4">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="H13" s="2">
-        <v>1313</v>
+        <v>1763</v>
       </c>
       <c r="I13" s="2">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
@@ -2564,28 +2600,28 @@
         <v>30</v>
       </c>
       <c r="L13" s="6">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="5">
-        <v>89</v>
+      <c r="N13" s="6">
+        <v>67</v>
       </c>
       <c r="O13" s="6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P13" s="6">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="6">
-        <v>40</v>
-      </c>
-      <c r="R13" s="6">
-        <v>31</v>
-      </c>
-      <c r="S13" s="6">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="R13" s="5">
+        <v>23</v>
+      </c>
+      <c r="S13" s="5">
+        <v>23</v>
       </c>
       <c r="T13" s="5">
         <v>18</v>
@@ -2594,13 +2630,13 @@
         <v>180</v>
       </c>
       <c r="V13" s="6">
-        <v>30</v>
-      </c>
-      <c r="W13" s="5">
-        <v>29</v>
-      </c>
-      <c r="X13" s="9">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="W13" s="7">
+        <v>33</v>
+      </c>
+      <c r="X13" s="10">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
@@ -2623,7 +2659,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="4">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2656,7 +2692,7 @@
         <v>52</v>
       </c>
       <c r="R14" s="5">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S14" s="5">
         <v>23</v>
@@ -2665,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="U14" s="5">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="V14" s="5">
         <v>35</v>
@@ -2697,7 +2733,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="4">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2727,7 +2763,7 @@
         <v>57</v>
       </c>
       <c r="Q15" s="5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R15" s="5">
         <v>33</v>
@@ -2771,13 +2807,13 @@
         <v>39</v>
       </c>
       <c r="G16" s="4">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="H16" s="2">
-        <v>4401</v>
+        <v>4764</v>
       </c>
       <c r="I16" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>31</v>
@@ -2786,28 +2822,28 @@
         <v>30</v>
       </c>
       <c r="L16" s="7">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M16" s="5">
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O16" s="6">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P16" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="R16" s="6">
         <v>28</v>
       </c>
       <c r="S16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16" s="5">
         <v>0</v>
@@ -2845,7 +2881,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="4">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2860,7 +2896,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="5">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2919,7 +2955,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="4">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2940,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O18" s="5">
         <v>58</v>
@@ -2993,13 +3029,13 @@
         <v>39</v>
       </c>
       <c r="G19" s="4">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="H19" s="2">
-        <v>1988</v>
+        <v>1674</v>
       </c>
       <c r="I19" s="2">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>31</v>
@@ -3014,22 +3050,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P19" s="6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S19" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
@@ -3067,7 +3103,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="4">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -3082,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="5">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -3141,7 +3177,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="4">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -3215,13 +3251,13 @@
         <v>39</v>
       </c>
       <c r="G22" s="4">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="H22" s="2">
-        <v>4733</v>
+        <v>2405</v>
       </c>
       <c r="I22" s="2">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>31</v>
@@ -3230,25 +3266,25 @@
         <v>30</v>
       </c>
       <c r="L22" s="7">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O22" s="6">
-        <v>67</v>
-      </c>
-      <c r="P22" s="7">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="P22" s="6">
+        <v>43</v>
       </c>
       <c r="Q22" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S22" s="5">
         <v>23</v>
@@ -3289,7 +3325,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="4">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -3363,7 +3399,7 @@
         <v>43</v>
       </c>
       <c r="G24" s="4">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -3413,7 +3449,7 @@
       <c r="W24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3440,10 +3476,10 @@
         <v>0.86</v>
       </c>
       <c r="H25" s="2">
-        <v>3622</v>
+        <v>2816</v>
       </c>
       <c r="I25" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>31</v>
@@ -3455,7 +3491,7 @@
         <v>286</v>
       </c>
       <c r="M25" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N25" s="6">
         <v>44</v>
@@ -3487,7 +3523,7 @@
       <c r="W25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3511,7 +3547,7 @@
         <v>43</v>
       </c>
       <c r="G26" s="4">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -3561,7 +3597,7 @@
       <c r="W26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="X26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3635,7 +3671,7 @@
       <c r="W27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="10" t="s">
+      <c r="X27" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3709,7 +3745,7 @@
       <c r="W28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="10" t="s">
+      <c r="X28" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3783,7 +3819,7 @@
       <c r="W29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="10" t="s">
+      <c r="X29" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3807,7 +3843,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -3857,7 +3893,7 @@
       <c r="W30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="X30" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3881,13 +3917,13 @@
         <v>43</v>
       </c>
       <c r="G31" s="4">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="H31" s="2">
-        <v>3809</v>
+        <v>3720</v>
       </c>
       <c r="I31" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>
@@ -3896,10 +3932,10 @@
         <v>30</v>
       </c>
       <c r="L31" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M31" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N31" s="6">
         <v>34</v>
@@ -3911,7 +3947,7 @@
         <v>28</v>
       </c>
       <c r="Q31" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R31" s="5">
         <v>115</v>
@@ -3931,7 +3967,7 @@
       <c r="W31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X31" s="10" t="s">
+      <c r="X31" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3955,7 +3991,7 @@
         <v>43</v>
       </c>
       <c r="G32" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -4005,7 +4041,7 @@
       <c r="W32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="X32" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4029,7 +4065,7 @@
         <v>43</v>
       </c>
       <c r="G33" s="4">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -4079,7 +4115,7 @@
       <c r="W33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="X33" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4103,13 +4139,13 @@
         <v>43</v>
       </c>
       <c r="G34" s="4">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="H34" s="2">
-        <v>3634</v>
+        <v>5301</v>
       </c>
       <c r="I34" s="2">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>31</v>
@@ -4117,23 +4153,23 @@
       <c r="K34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="7">
-        <v>216</v>
+      <c r="L34" s="5">
+        <v>173</v>
       </c>
       <c r="M34" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N34" s="6">
         <v>44</v>
       </c>
       <c r="O34" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P34" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R34" s="5">
         <v>144</v>
@@ -4153,969 +4189,81 @@
       <c r="W34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="8">
+      <c r="A35" s="16">
         <v>45822</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="G35" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="K35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="21">
         <v>173</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="21">
         <v>75</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="21">
         <v>58</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="21">
         <v>49</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="21">
         <v>41</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="21">
         <v>29</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="21">
         <v>144</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="21">
         <v>33</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="21">
         <v>26</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="8">
-        <v>45829</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="5">
-        <v>259</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" s="5">
-        <v>75</v>
-      </c>
-      <c r="P36" s="5">
-        <v>58</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>46</v>
-      </c>
-      <c r="R36" s="5">
-        <v>29</v>
-      </c>
-      <c r="S36" s="5">
-        <v>23</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U36" s="5">
-        <v>0</v>
-      </c>
-      <c r="V36" s="5">
-        <v>41</v>
-      </c>
-      <c r="W36" s="5">
-        <v>23</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="16">
-      <c r="A37" s="8">
-        <v>45829</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H37" s="2">
-        <v>3100</v>
-      </c>
-      <c r="I37" s="2">
-        <v>193</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" s="7">
-        <v>294</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" s="6">
-        <v>59</v>
-      </c>
-      <c r="P37" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>41</v>
-      </c>
-      <c r="R37" s="6">
-        <v>27</v>
-      </c>
-      <c r="S37" s="7">
-        <v>27</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>41</v>
-      </c>
-      <c r="W37" s="5">
-        <v>23</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="8">
-        <v>45829</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" s="5">
-        <v>259</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" s="5">
-        <v>75</v>
-      </c>
-      <c r="P38" s="5">
-        <v>58</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>46</v>
-      </c>
-      <c r="R38" s="5">
-        <v>29</v>
-      </c>
-      <c r="S38" s="5">
-        <v>23</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>41</v>
-      </c>
-      <c r="W38" s="5">
-        <v>23</v>
-      </c>
-      <c r="X38" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="8">
-        <v>45830</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="5">
-        <v>259</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="5">
-        <v>75</v>
-      </c>
-      <c r="P39" s="5">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>46</v>
-      </c>
-      <c r="R39" s="5">
-        <v>29</v>
-      </c>
-      <c r="S39" s="5">
-        <v>23</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>41</v>
-      </c>
-      <c r="W39" s="5">
-        <v>23</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="8">
-        <v>45830</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2996</v>
-      </c>
-      <c r="I40" s="2">
-        <v>407</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="7">
-        <v>293</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="6">
-        <v>57</v>
-      </c>
-      <c r="P40" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>35</v>
-      </c>
-      <c r="R40" s="6">
-        <v>23</v>
-      </c>
-      <c r="S40" s="5">
-        <v>23</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <v>35</v>
-      </c>
-      <c r="W40" s="5">
-        <v>23</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="16">
-      <c r="A41" s="8">
-        <v>45830</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="5">
-        <v>259</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="5">
-        <v>75</v>
-      </c>
-      <c r="P41" s="5">
-        <v>58</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>46</v>
-      </c>
-      <c r="R41" s="5">
-        <v>29</v>
-      </c>
-      <c r="S41" s="5">
-        <v>23</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>41</v>
-      </c>
-      <c r="W41" s="5">
-        <v>23</v>
-      </c>
-      <c r="X41" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="8">
-        <v>45835</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="5">
-        <v>229</v>
-      </c>
-      <c r="M42" s="5">
-        <v>75</v>
-      </c>
-      <c r="N42" s="5">
-        <v>69</v>
-      </c>
-      <c r="O42" s="5">
-        <v>64</v>
-      </c>
-      <c r="P42" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>46</v>
-      </c>
-      <c r="R42" s="5">
-        <v>35</v>
-      </c>
-      <c r="S42" s="5">
-        <v>23</v>
-      </c>
-      <c r="T42" s="5">
-        <v>144</v>
-      </c>
-      <c r="U42" s="5">
-        <v>29</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="8">
-        <v>45835</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>3241</v>
-      </c>
-      <c r="I43" s="2">
-        <v>121</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="7">
-        <v>265</v>
-      </c>
-      <c r="M43" s="7">
-        <v>90</v>
-      </c>
-      <c r="N43" s="7">
-        <v>81</v>
-      </c>
-      <c r="O43" s="7">
-        <v>76</v>
-      </c>
-      <c r="P43" s="6">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>45</v>
-      </c>
-      <c r="R43" s="6">
-        <v>34</v>
-      </c>
-      <c r="S43" s="6">
-        <v>19</v>
-      </c>
-      <c r="T43" s="5">
-        <v>144</v>
-      </c>
-      <c r="U43" s="5">
-        <v>29</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X43" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="8">
-        <v>45835</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="5">
-        <v>229</v>
-      </c>
-      <c r="M44" s="5">
-        <v>75</v>
-      </c>
-      <c r="N44" s="5">
-        <v>69</v>
-      </c>
-      <c r="O44" s="5">
-        <v>64</v>
-      </c>
-      <c r="P44" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>46</v>
-      </c>
-      <c r="R44" s="5">
-        <v>35</v>
-      </c>
-      <c r="S44" s="5">
-        <v>23</v>
-      </c>
-      <c r="T44" s="5">
-        <v>144</v>
-      </c>
-      <c r="U44" s="5">
-        <v>29</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="16">
-      <c r="A45" s="8">
-        <v>45836</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="5">
-        <v>229</v>
-      </c>
-      <c r="M45" s="5">
-        <v>75</v>
-      </c>
-      <c r="N45" s="5">
-        <v>69</v>
-      </c>
-      <c r="O45" s="5">
-        <v>64</v>
-      </c>
-      <c r="P45" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>46</v>
-      </c>
-      <c r="R45" s="5">
-        <v>35</v>
-      </c>
-      <c r="S45" s="5">
-        <v>23</v>
-      </c>
-      <c r="T45" s="5">
-        <v>144</v>
-      </c>
-      <c r="U45" s="5">
-        <v>29</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X45" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="16">
-      <c r="A46" s="8">
-        <v>45836</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="H46" s="2">
-        <v>5088</v>
-      </c>
-      <c r="I46" s="2">
-        <v>222</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="7">
-        <v>263</v>
-      </c>
-      <c r="M46" s="7">
-        <v>91</v>
-      </c>
-      <c r="N46" s="7">
-        <v>82</v>
-      </c>
-      <c r="O46" s="7">
-        <v>78</v>
-      </c>
-      <c r="P46" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>40</v>
-      </c>
-      <c r="R46" s="6">
-        <v>28</v>
-      </c>
-      <c r="S46" s="7">
-        <v>26</v>
-      </c>
-      <c r="T46" s="5">
-        <v>144</v>
-      </c>
-      <c r="U46" s="5">
-        <v>29</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="16">
-      <c r="A47" s="14">
-        <v>45836</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="H47" s="18">
-        <v>0</v>
-      </c>
-      <c r="I47" s="18">
-        <v>0</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="19">
-        <v>229</v>
-      </c>
-      <c r="M47" s="19">
-        <v>75</v>
-      </c>
-      <c r="N47" s="19">
-        <v>69</v>
-      </c>
-      <c r="O47" s="19">
-        <v>64</v>
-      </c>
-      <c r="P47" s="19">
-        <v>52</v>
-      </c>
-      <c r="Q47" s="19">
-        <v>46</v>
-      </c>
-      <c r="R47" s="19">
-        <v>35</v>
-      </c>
-      <c r="S47" s="19">
-        <v>23</v>
-      </c>
-      <c r="T47" s="19">
-        <v>144</v>
-      </c>
-      <c r="U47" s="19">
-        <v>29</v>
-      </c>
-      <c r="V47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="W47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="X47" s="20" t="s">
+      <c r="U35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X35" s="22" t="s">
         <v>30</v>
       </c>
     </row>
